--- a/biology/Neurosciences/Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__/Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__.xlsx
+++ b/biology/Neurosciences/Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__/Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima___Quel_âge_a_votre_cerveau__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_avanc%C3%A9_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Programme d'entraînement cérébral avancé du Dr Kawashima : Quel âge a votre cerveau ? est un jeu vidéo sur la console portable de Nintendo : La Nintendo DS. Ce jeu est la suite du jeu Programme d'entraînement cérébral du Dr Kawashima : Quel âge a votre cerveau ? (Brain Age aux États-Unis) qui consiste à évaluer l'âge cérébral. Cette version du jeu propose les exercices basiques du premier opus mais aussi de nouveaux exercices : suivre des partitions avec un piano virtuel, distinguer des mots en milieu confus, rendre la monnaie sur des billets de 5 ou 10 euros, écrire des symboles à partir de chiffres, mémoriser des chiffres, des mots, etc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_avanc%C3%A9_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le joueur est accueilli par le professeur Ryuta Kawashima, dont on voit le visage en modélisation 3D, et vous fait faire des petits tests (calcul, mémorisation, lecture, etc.) pour calculer votre âge cérébral. Il vous faudra ensuite pratiquer ces exercices régulièrement pour améliorer votre âge cérébral.
 Vous pourrez vous entraîner avant d'effectuer une évaluation : calcul, mémorisation, jeu de vitesse, etc.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_avanc%C3%A9_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_avanc%C3%A9_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+          <t>Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +597,49 @@
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Kawashima aurait refusé 22 millions de dollars de royalties[1] que voulait lui verser Nintendo : « Je n'ai pas eu un seul sou en poche […] Toute ma famille est en colère à cause de cela. Mais je leur réponds que, s'ils veulent de l'argent, ils n'ont qu'à travailler pour le mériter ! ». L'intégralité des 22 millions est allée à une fondation pour la recherche scientifique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Kawashima aurait refusé 22 millions de dollars de royalties que voulait lui verser Nintendo : « Je n'ai pas eu un seul sou en poche […] Toute ma famille est en colère à cause de cela. Mais je leur réponds que, s'ils veulent de l'argent, ils n'ont qu'à travailler pour le mériter ! ». L'intégralité des 22 millions est allée à une fondation pour la recherche scientifique.
 En France, la promotion est assurée grâce à des spots TV où apparaissent Nicole Kidman et Michèle Laroque, plusieurs célébrités participent également à la promotion dans différents pays (Kieren Perkins en Australie, Liv Tyler aux États-Unis).
-Critique
-Ventes
-En 2022, Nintendo affiche 19,01 millions d'exemplaires vendus dans le monde, faisant de lui le quatrième jeu le plus vendu par la firme sur la Nintendo DS[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Programme_d'entraînement_cérébral_avancé_du_Dr_Kawashima_:_Quel_âge_a_votre_cerveau_?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Programme_d%27entra%C3%AEnement_c%C3%A9r%C3%A9bral_avanc%C3%A9_du_Dr_Kawashima_:_Quel_%C3%A2ge_a_votre_cerveau_%3F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ventes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Nintendo affiche 19,01 millions d'exemplaires vendus dans le monde, faisant de lui le quatrième jeu le plus vendu par la firme sur la Nintendo DS.
 </t>
         </is>
       </c>
